--- a/MMA/Quant_Test_File1.xlsx
+++ b/MMA/Quant_Test_File1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinc./Documents/GitHub/Quant/MMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C37F1C-E190-472F-8F71-9E7AB1484D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945172B1-B82E-A642-BFCF-59229DE1B842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5BB91C-FA0A-486A-ADDB-2C922D209DC9}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5BB91C-FA0A-486A-ADDB-2C922D209DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,56 +31,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Analyst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2330 TT Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVDA US Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD US Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAPL US Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3324 TT Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downside</t>
+  </si>
+  <si>
     <t>Upside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Downside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analyst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2330 TT Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVDA US Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD US Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAPL US Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3324 TT Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Richard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Julia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>William</t>
   </si>
 </sst>
 </file>
@@ -91,14 +88,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -135,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,35 +447,35 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -487,15 +484,15 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>45422</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -504,15 +501,15 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>45319</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>950</v>
@@ -521,15 +518,15 @@
         <v>1450</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>45372</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -538,15 +535,15 @@
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>45265</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>710</v>
@@ -555,7 +552,7 @@
         <v>920</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>45303</v>
